--- a/files/project requirements/HU/HU.xlsx
+++ b/files/project requirements/HU/HU.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Users\Administrador\Documents\Documentos personales\MinTIC2022\Ciclo 3\Programación\Proyecto\sprint 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Users\Administrador\Documents\Documentos personales\MinTIC2022\Ciclo 3\Programación\Proyecto\ssacg\files\project requirements\HU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E2F5D85-DDB5-4620-9DBA-7DFCA3E282BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F4FE51E-5435-47BA-B687-697FE499F56C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20280" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{DB665A41-5881-4F67-A75C-EB14CE28CF87}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11760" xr2:uid="{DB665A41-5881-4F67-A75C-EB14CE28CF87}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Historias de usuario" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="89">
   <si>
     <t>ROL</t>
   </si>
@@ -84,21 +84,12 @@
     <t>TAG 1</t>
   </si>
   <si>
-    <t>TAG 2</t>
-  </si>
-  <si>
     <t>MÓDULO</t>
   </si>
   <si>
     <t>LOGIN</t>
   </si>
   <si>
-    <t>frontend</t>
-  </si>
-  <si>
-    <t>backend</t>
-  </si>
-  <si>
     <t>Yo como sistema</t>
   </si>
   <si>
@@ -144,42 +135,9 @@
     <t>Yo como superAdmin</t>
   </si>
   <si>
-    <t>quiero poder crear otros admins</t>
-  </si>
-  <si>
-    <t>para llevar control de la creación de usuarios con privilegios de admin</t>
-  </si>
-  <si>
-    <t>quiero actualizar los datos de un admin</t>
-  </si>
-  <si>
-    <t>para corregir o actualizar información si es necesario</t>
-  </si>
-  <si>
-    <t>quiero eliminar otros amin</t>
-  </si>
-  <si>
-    <t>para restringir acceso cuando no se necesite de dicho admin</t>
-  </si>
-  <si>
     <t>Yo como superAdmin/admin</t>
   </si>
   <si>
-    <t>quiero obtener un listado de todos los datos de otros admin (superAdmin info adicional)</t>
-  </si>
-  <si>
-    <t>para tener un control organizacional</t>
-  </si>
-  <si>
-    <t>quiero organizar el listado de admins por cada uno de los datos de admin ((superAdmin info adicional)</t>
-  </si>
-  <si>
-    <t>para buscar información fácilmente</t>
-  </si>
-  <si>
-    <t>quiero filtrar listado de otros admin (superAdmin info adicional)</t>
-  </si>
-  <si>
     <t>para obtener información relacionada más rápido</t>
   </si>
   <si>
@@ -195,51 +153,12 @@
     <t>GESTIÓN DE PRODUCTOS</t>
   </si>
   <si>
-    <t>quiero agregar información de nuevos productos</t>
-  </si>
-  <si>
     <t>para tener actualizado el sistema con los productos que se ofrecen</t>
   </si>
   <si>
-    <t>quiero eliminar productos</t>
-  </si>
-  <si>
-    <t>para tener actualizado el sistema sin los productos que ya NO se ofrecen</t>
-  </si>
-  <si>
-    <t>quiero actualizar información de un producto existente</t>
-  </si>
-  <si>
-    <t>quiero actualizar el stock de un producto que ya se haya vendido</t>
-  </si>
-  <si>
-    <t>para mostrar al usuario información actualizada y avisar admins  sobre posible falta de stock cuando sea menor a mm cantidades</t>
-  </si>
-  <si>
-    <t>quiero listar todos los productos junto con su información empresarial (por ejemplo,código de producto )</t>
-  </si>
-  <si>
-    <t>para realizar consultas especializada y más rápido</t>
-  </si>
-  <si>
     <t>Yo como admin/cliente</t>
   </si>
   <si>
-    <t>quiero listar todos los productos</t>
-  </si>
-  <si>
-    <t>para consulta</t>
-  </si>
-  <si>
-    <t>quiero organizar (ascendente-descendente) el listado de productos.</t>
-  </si>
-  <si>
-    <t>para fácil consulta</t>
-  </si>
-  <si>
-    <t>quiero filtrar-buscar listado de productos</t>
-  </si>
-  <si>
     <t>Quiero ver los articulos que estan siendo tendencia de compra en un rango de tiempo</t>
   </si>
   <si>
@@ -255,45 +174,9 @@
     <t>GESTIÓN DE VENTAS</t>
   </si>
   <si>
-    <t>quiero listar todas las ventas </t>
-  </si>
-  <si>
-    <t>para llevar contabilidad empresarial</t>
-  </si>
-  <si>
-    <t>quiero categorizar ventas por producto</t>
-  </si>
-  <si>
-    <t>saber cuántas ventas tuvo un producto</t>
-  </si>
-  <si>
-    <t>quiero filtrar el listado de ventas</t>
-  </si>
-  <si>
-    <t>para buscar información más rápido</t>
-  </si>
-  <si>
-    <t>quiero listar ventas en un periodo en específico</t>
-  </si>
-  <si>
-    <t>para obtener información más rápido</t>
-  </si>
-  <si>
-    <t>Quiero consultar un listado de los pedidos que han sido realizados, pero no han sido procesados</t>
-  </si>
-  <si>
-    <t>Para llevar un control del envío de productos</t>
-  </si>
-  <si>
-    <t>quiero ver el estado de mi pedido, despacho, stock, etc</t>
-  </si>
-  <si>
     <t>para estar informado de mi compra</t>
   </si>
   <si>
-    <t>quiero ver una lista de los productos ya despachados</t>
-  </si>
-  <si>
     <t>para llevar un control logístico</t>
   </si>
   <si>
@@ -309,33 +192,9 @@
     <t>para no perder el dinero</t>
   </si>
   <si>
-    <t>quiero consultar el listado de productos candidatos a devolver (petición realizada por el cliente)</t>
-  </si>
-  <si>
-    <t>para gestionar devoluciones</t>
-  </si>
-  <si>
-    <t>quiero aceptar o rechazar la devolución de un producto</t>
-  </si>
-  <si>
-    <t>pare gestionar devoluciones</t>
-  </si>
-  <si>
     <t>CARRITO DE COMPRAS</t>
   </si>
   <si>
-    <t>quiero ver un listado de los productos que estoy/voy comprando</t>
-  </si>
-  <si>
-    <t>para que sea más fácil ver la información de mi compra</t>
-  </si>
-  <si>
-    <t>quiero eliminar un producto del carrito de compras</t>
-  </si>
-  <si>
-    <t>para no comprar algo que en lo que ya no estoy interesado</t>
-  </si>
-  <si>
     <t>quiero tener varias opciones de medio de pago (tarjeta crédito/débito, efectivo, PSE)</t>
   </si>
   <si>
@@ -351,33 +210,12 @@
     <t>REPORTES</t>
   </si>
   <si>
-    <t>quiero listar todos los inicios de sesión o de uso del sistema por otros admins</t>
-  </si>
-  <si>
     <t>para llevar un control organizacional</t>
   </si>
   <si>
-    <t>quiero exportar el listado de ventas</t>
-  </si>
-  <si>
-    <t>para hacer un análisis de marketing en otras plataformas</t>
-  </si>
-  <si>
-    <t>quiero mostrar gráficas y pensum de los productos más vendidos y menos solicitados</t>
-  </si>
-  <si>
-    <t>para ir descontinuando los productos que se venden muy poco</t>
-  </si>
-  <si>
-    <t>quiero exportar la lista de productos ya despachados</t>
-  </si>
-  <si>
     <t>para hacer un análisis logístico en otras plataformas</t>
   </si>
   <si>
-    <t>quiero exportar el listado de productos devueltos</t>
-  </si>
-  <si>
     <t>para hacer un análisis de logística en otras plataformas</t>
   </si>
   <si>
@@ -387,26 +225,112 @@
     <t>para tener conocimiento de la trayectoria de la marca</t>
   </si>
   <si>
-    <t>quiero marcar una venta como despachada (que se guarde la info de quién aceptó el despacho)</t>
-  </si>
-  <si>
-    <t>data_manage</t>
-  </si>
-  <si>
-    <t>quiero editar mi información de usuario registrada</t>
-  </si>
-  <si>
     <t>MOCKUPS</t>
   </si>
   <si>
     <t>WIREFRAMES</t>
+  </si>
+  <si>
+    <t>CRUD</t>
+  </si>
+  <si>
+    <t>CATEGORÍA</t>
+  </si>
+  <si>
+    <t>productos</t>
+  </si>
+  <si>
+    <t>usuario</t>
+  </si>
+  <si>
+    <t>carrito</t>
+  </si>
+  <si>
+    <t>devolución</t>
+  </si>
+  <si>
+    <t>venta</t>
+  </si>
+  <si>
+    <t>quiero ver el número de items sobre el carrito de compras</t>
+  </si>
+  <si>
+    <t>para que sea más fácil gestionar mis compras</t>
+  </si>
+  <si>
+    <t>quiero gestionar la información del carrito de compras</t>
+  </si>
+  <si>
+    <t>quiero gestionar las devoluciones</t>
+  </si>
+  <si>
+    <t>para realizar un control organizacional</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">quiero </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>exportar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> el listado de productos devueltos</t>
+    </r>
+  </si>
+  <si>
+    <t>quiero gestionar la información de los productos</t>
+  </si>
+  <si>
+    <t>para gestionar mi compra</t>
+  </si>
+  <si>
+    <t>quiero leer por medio de filtros el listado de productos</t>
+  </si>
+  <si>
+    <t>quiero gestionar la información de admins</t>
+  </si>
+  <si>
+    <t>quiero gestionar mi información registrada</t>
+  </si>
+  <si>
+    <t>quiero exportar información de las ventas</t>
+  </si>
+  <si>
+    <t>quiero consultar las ventas y gestionar su despacho</t>
+  </si>
+  <si>
+    <t>quiero mostrar de forma gráfica la información de ventas</t>
+  </si>
+  <si>
+    <t>para poder realizar un análisis estadístico y de marketing</t>
+  </si>
+  <si>
+    <t>quiero ver el estado de mi compra</t>
+  </si>
+  <si>
+    <t>quiero consultar información de otros admin</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -428,19 +352,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -452,10 +377,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -484,12 +410,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="9">
     <dxf>
@@ -536,10 +469,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0E140770-7765-4347-8890-6B4C94FC0DD6}" name="HU" displayName="HU" ref="A1:H52" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="A1:H52" xr:uid="{0E140770-7765-4347-8890-6B4C94FC0DD6}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H52">
-    <sortCondition ref="A1:A52"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0E140770-7765-4347-8890-6B4C94FC0DD6}" name="HU" displayName="HU" ref="A1:H33" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="A1:H33" xr:uid="{0E140770-7765-4347-8890-6B4C94FC0DD6}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H33">
+    <sortCondition ref="A1:A33"/>
   </sortState>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{3D57EC37-28F4-4400-A574-E0E4A54C828A}" name="MÓDULO" dataDxfId="6"/>
@@ -547,7 +480,7 @@
     <tableColumn id="3" xr3:uid="{F6FCAAF3-62B9-4B8B-B52A-81D2AC9613FF}" name="FUNCIONALIDAD" dataDxfId="4"/>
     <tableColumn id="4" xr3:uid="{0AC39ECF-CF32-4750-879E-7F9D09B6DDB4}" name="OBJETIVO" dataDxfId="3"/>
     <tableColumn id="5" xr3:uid="{C4950150-4523-42DB-B797-688C0BAA5C1F}" name="TAG 1" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{28051DBA-1FB2-4D73-81C0-D9F45456246C}" name="TAG 2" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{28051DBA-1FB2-4D73-81C0-D9F45456246C}" name="CATEGORÍA" dataDxfId="1"/>
     <tableColumn id="10" xr3:uid="{AC15AB67-0459-4A71-951D-05D3188B5095}" name="WIREFRAMES"/>
     <tableColumn id="11" xr3:uid="{268C71AF-9866-41C1-BED0-22AB5BF07941}" name="MOCKUPS" dataDxfId="0"/>
   </tableColumns>
@@ -852,10 +785,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBA2B2BC-3E42-4558-A732-C5D74C5B836E}">
-  <dimension ref="A1:H52"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -864,14 +797,14 @@
     <col min="2" max="2" width="26.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="46.140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="12.5703125" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" customWidth="1"/>
     <col min="7" max="7" width="18.5703125" customWidth="1"/>
     <col min="8" max="8" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -886,1077 +819,662 @@
         <v>15</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>121</v>
+        <v>64</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="6"/>
+        <v>65</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>68</v>
+      </c>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>118</v>
+        <v>68</v>
       </c>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>118</v>
+        <v>69</v>
       </c>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>118</v>
+        <v>67</v>
       </c>
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>118</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>118</v>
+        <v>69</v>
       </c>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>118</v>
+        <v>68</v>
       </c>
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>118</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>95</v>
+        <v>31</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>102</v>
+        <v>24</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>20</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>95</v>
+        <v>31</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>101</v>
+        <v>20</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>97</v>
+        <v>39</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>118</v>
+        <v>67</v>
       </c>
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>20</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>33</v>
-      </c>
       <c r="D14" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>20</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>20</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>119</v>
+        <v>29</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>118</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F18" s="6"/>
+        <v>65</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>67</v>
+      </c>
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B20" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="H20" s="1"/>
-    </row>
-    <row r="21" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>21</v>
-      </c>
       <c r="C21" s="5" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F21" s="6"/>
+        <v>65</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>70</v>
+      </c>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E22" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>118</v>
-      </c>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
       <c r="H22" s="1"/>
     </row>
     <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>118</v>
+        <v>71</v>
       </c>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>118</v>
+        <v>71</v>
       </c>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>118</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
       <c r="H25" s="1"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>118</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>118</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>65</v>
+        <v>4</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>118</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
       <c r="H28" s="1"/>
     </row>
-    <row r="29" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>118</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
       <c r="H29" s="1"/>
     </row>
     <row r="30" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>68</v>
+        <v>7</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>118</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
       <c r="H30" s="1"/>
     </row>
     <row r="31" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>118</v>
+        <v>70</v>
       </c>
       <c r="H31" s="1"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>118</v>
+        <v>71</v>
       </c>
       <c r="H32" s="1"/>
     </row>
-    <row r="33" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>118</v>
+        <v>71</v>
       </c>
       <c r="H33" s="1"/>
     </row>
-    <row r="34" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="H34" s="1"/>
-    </row>
-    <row r="35" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H35" s="1"/>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="H36" s="1"/>
+      <c r="D36" s="10"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="H37" s="1"/>
+      <c r="D37" s="10"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F38" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="H38" s="1"/>
-    </row>
-    <row r="39" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F39" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="H39" s="1"/>
+      <c r="D38" s="10"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D39" s="10"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F40" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H40" s="1"/>
-    </row>
-    <row r="41" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F41" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="H41" s="1"/>
-    </row>
-    <row r="42" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F42" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="H42" s="1"/>
-    </row>
-    <row r="43" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F43" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H43" s="1"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F44" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H44" s="1"/>
-    </row>
-    <row r="45" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F45" s="6"/>
-      <c r="H45" s="1"/>
-    </row>
-    <row r="46" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E46" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F46" s="6"/>
-      <c r="H46" s="1"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E47" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F47" s="6"/>
-      <c r="H47" s="1"/>
-    </row>
-    <row r="48" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F48" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="H48" s="1"/>
-    </row>
-    <row r="49" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="E49" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F49" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="H49" s="1"/>
-    </row>
-    <row r="50" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="E50" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F50" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="H50" s="1"/>
-    </row>
-    <row r="51" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C51" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="E51" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F51" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="H51" s="1"/>
-    </row>
-    <row r="52" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="E52" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F52" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="H52" s="1"/>
+      <c r="D40" s="10"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D41" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:F52" xr:uid="{A288699B-4736-48D1-BC7B-CA44439A0DDB}">
-      <formula1>"frontend, backend, data_manage, other"</formula1>
+  <dataValidations disablePrompts="1" count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F33" xr:uid="{A288699B-4736-48D1-BC7B-CA44439A0DDB}">
+      <formula1>"productos, usuario, venta, carrito, devolución"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E33" xr:uid="{E4229B9E-EEEE-49AB-9FBD-CABA4AE860BA}">
+      <formula1>"CRUD, frontend, backend, data_manage, other"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/files/project requirements/HU/HU.xlsx
+++ b/files/project requirements/HU/HU.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Users\Administrador\Documents\Documentos personales\MinTIC2022\Ciclo 3\Programación\Proyecto\ssacg\files\project requirements\HU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F4FE51E-5435-47BA-B687-697FE499F56C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB0172A6-C7EF-48BF-9190-896DF3C1EC1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11760" xr2:uid="{DB665A41-5881-4F67-A75C-EB14CE28CF87}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11760" activeTab="1" xr2:uid="{DB665A41-5881-4F67-A75C-EB14CE28CF87}"/>
   </bookViews>
   <sheets>
-    <sheet name="Historias de usuario" sheetId="1" r:id="rId1"/>
+    <sheet name="EPICS" sheetId="3" r:id="rId1"/>
+    <sheet name="USER STORIES" sheetId="1" r:id="rId2"/>
+    <sheet name="Tasks" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="207">
   <si>
     <t>ROL</t>
   </si>
@@ -325,12 +327,366 @@
   <si>
     <t>quiero consultar información de otros admin</t>
   </si>
+  <si>
+    <t>TEAM</t>
+  </si>
+  <si>
+    <t>NOMBRE</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>GESTIÓN DE USUARIOS</t>
+  </si>
+  <si>
+    <t>TASK</t>
+  </si>
+  <si>
+    <t>lead</t>
+  </si>
+  <si>
+    <t>Desplegar UI CRUD carrito</t>
+  </si>
+  <si>
+    <t>2.1.18</t>
+  </si>
+  <si>
+    <t>Desplegar servicios web CRUD carrito</t>
+  </si>
+  <si>
+    <t>2.1.17</t>
+  </si>
+  <si>
+    <t>QA</t>
+  </si>
+  <si>
+    <t>Realizar las pruebas sobre la UI CRUD sobre carrito</t>
+  </si>
+  <si>
+    <t>2.1.16</t>
+  </si>
+  <si>
+    <t>Diseñar los casos de prueba para la UI CRUD sobre carrito</t>
+  </si>
+  <si>
+    <t>2.1.15</t>
+  </si>
+  <si>
+    <t>Realizar las pruebas sobre los servicios web CRUD sobre carrito</t>
+  </si>
+  <si>
+    <t>2.1.14</t>
+  </si>
+  <si>
+    <t>Diseñar los casos de prueba para los servicios web CRUD sobre el carrito</t>
+  </si>
+  <si>
+    <t>2.1.13</t>
+  </si>
+  <si>
+    <t>frontend</t>
+  </si>
+  <si>
+    <t>Construir UI del mockup eliminar ítem del carrito</t>
+  </si>
+  <si>
+    <t>2.1.12</t>
+  </si>
+  <si>
+    <t>Construir UI del mockup modificar cantidad de ítem en el carrito</t>
+  </si>
+  <si>
+    <t>2.1.11</t>
+  </si>
+  <si>
+    <t>Construir UI del mockup adicional ítem al carrito</t>
+  </si>
+  <si>
+    <t>2.1.10</t>
+  </si>
+  <si>
+    <t>Construir UI del mockup traer ítem del carrio</t>
+  </si>
+  <si>
+    <t>2.1.9</t>
+  </si>
+  <si>
+    <t>mockup</t>
+  </si>
+  <si>
+    <t>Diseñar un mockup para eliminar un ítem del carrito</t>
+  </si>
+  <si>
+    <t>2.1.8</t>
+  </si>
+  <si>
+    <t>Diseñar un mockup para modificar la cantidad de un ítem en el carrito</t>
+  </si>
+  <si>
+    <t>2.1.7</t>
+  </si>
+  <si>
+    <t>Diseñar un mockup para adicionar un ítem al carrito de compras</t>
+  </si>
+  <si>
+    <t>2.1.6</t>
+  </si>
+  <si>
+    <t>Diseñar un mockup para traer los ítems del carrito de compras</t>
+  </si>
+  <si>
+    <t>2.1.5</t>
+  </si>
+  <si>
+    <t>backend</t>
+  </si>
+  <si>
+    <t>Construir un servicio web para eliminar un ítem del carrito</t>
+  </si>
+  <si>
+    <t>2.1.4</t>
+  </si>
+  <si>
+    <t>Construir un servicio web para modificar la cantidad de un ítem en el carrito</t>
+  </si>
+  <si>
+    <t>2.1.3</t>
+  </si>
+  <si>
+    <t>Construir un servicio web para adicionar un ítem al carrito de compras</t>
+  </si>
+  <si>
+    <t>2.1.2</t>
+  </si>
+  <si>
+    <t>Construir un servicio web para traer los ítems del carrito de compras</t>
+  </si>
+  <si>
+    <t>2.1.1</t>
+  </si>
+  <si>
+    <t>Desplegar UI CRUD productos</t>
+  </si>
+  <si>
+    <t>4.1.18</t>
+  </si>
+  <si>
+    <t>Desplegar servicios web CRUD productos</t>
+  </si>
+  <si>
+    <t>4.1.17</t>
+  </si>
+  <si>
+    <t>Realizar las pruebas sobre la UI CRUD sobre productos</t>
+  </si>
+  <si>
+    <t>4.1.16</t>
+  </si>
+  <si>
+    <t>Diseñar los casos de prueba para la UI CRUD sobre productos</t>
+  </si>
+  <si>
+    <t>4.1.15</t>
+  </si>
+  <si>
+    <t>Realizar las pruebas sobre los servicios web CRUD sobre productos</t>
+  </si>
+  <si>
+    <t>4.1.14</t>
+  </si>
+  <si>
+    <t>Diseñar los casos de prueba para los servicios web CRUD sobre productos</t>
+  </si>
+  <si>
+    <t>4.1.13</t>
+  </si>
+  <si>
+    <t>Construir UI del mockup eliminar producto</t>
+  </si>
+  <si>
+    <t>4.1.12</t>
+  </si>
+  <si>
+    <t>Construir UI del mockup modificar producto</t>
+  </si>
+  <si>
+    <t>4.1.11</t>
+  </si>
+  <si>
+    <t>Construir UI del mockup crear producto</t>
+  </si>
+  <si>
+    <t>4.1.10</t>
+  </si>
+  <si>
+    <t>Construir UI del mockup lista de productos</t>
+  </si>
+  <si>
+    <t>4.1.9</t>
+  </si>
+  <si>
+    <t>Diseñar un mockup para eliminar un producto</t>
+  </si>
+  <si>
+    <t>4.1.8</t>
+  </si>
+  <si>
+    <t>Diseñar un mockup para modificar un producto</t>
+  </si>
+  <si>
+    <t>4.1.7</t>
+  </si>
+  <si>
+    <t>Diseñar un mockup para crear un producto</t>
+  </si>
+  <si>
+    <t>4.1.6</t>
+  </si>
+  <si>
+    <t>Diseñar un mockup para leer lista de productos, filtrarla y organizarla</t>
+  </si>
+  <si>
+    <t>4.1.5</t>
+  </si>
+  <si>
+    <t>Construir un servicio web para eliminar un producto</t>
+  </si>
+  <si>
+    <t>4.1.4</t>
+  </si>
+  <si>
+    <t>Construir un servicio web para modificar un producto existente</t>
+  </si>
+  <si>
+    <t>4.1.3</t>
+  </si>
+  <si>
+    <t>Construir un servicio web para crear producto</t>
+  </si>
+  <si>
+    <t>4.1.2</t>
+  </si>
+  <si>
+    <t>Construir un servicio web para leer lista de productos</t>
+  </si>
+  <si>
+    <t>4.1.1</t>
+  </si>
+  <si>
+    <t>Desplegar UI CRUD admin</t>
+  </si>
+  <si>
+    <t>1.2.18</t>
+  </si>
+  <si>
+    <t>Desplegar servicios web CRUD admin</t>
+  </si>
+  <si>
+    <t>1.2.17</t>
+  </si>
+  <si>
+    <t>Realizar las pruebas sobre la UI CRUD sobre admins</t>
+  </si>
+  <si>
+    <t>1.2.16</t>
+  </si>
+  <si>
+    <t>Diseñar los casos de prueba para la UI CRUD sobre admins</t>
+  </si>
+  <si>
+    <t>1.2.15</t>
+  </si>
+  <si>
+    <t>Realizar las pruebas sobre los servicios web CRUD sobre admins</t>
+  </si>
+  <si>
+    <t>1.2.14</t>
+  </si>
+  <si>
+    <t>Diseñar los casos de prueba para los servicios web CRUD sobre admins</t>
+  </si>
+  <si>
+    <t>1.2.13</t>
+  </si>
+  <si>
+    <t>Construir UI del mockup eliminar admin</t>
+  </si>
+  <si>
+    <t>1.2.12</t>
+  </si>
+  <si>
+    <t>Construir UI del mockup modificar admin</t>
+  </si>
+  <si>
+    <t>1.2.11</t>
+  </si>
+  <si>
+    <t>Construir UI del mockup crear admin</t>
+  </si>
+  <si>
+    <t>1.2.10</t>
+  </si>
+  <si>
+    <t>Construir UI del mockup lista de admins</t>
+  </si>
+  <si>
+    <t>1.2.9</t>
+  </si>
+  <si>
+    <t>Diseñar un mockup para eliminar un admin</t>
+  </si>
+  <si>
+    <t>1.2.8</t>
+  </si>
+  <si>
+    <t>Diseñar un mockup para modificar un admin</t>
+  </si>
+  <si>
+    <t>1.2.7</t>
+  </si>
+  <si>
+    <t>Diseñar un mockup para crear un admin</t>
+  </si>
+  <si>
+    <t>1.2.6</t>
+  </si>
+  <si>
+    <t>Diseñar un mockup para leer lista de admins, filtrarla y organizarla</t>
+  </si>
+  <si>
+    <t>1.2.5</t>
+  </si>
+  <si>
+    <t>Construir un servicio web para eliminar un admin</t>
+  </si>
+  <si>
+    <t>1.2.4</t>
+  </si>
+  <si>
+    <t>Construir un servicio web para modificar un admin existente</t>
+  </si>
+  <si>
+    <t>1.2.3</t>
+  </si>
+  <si>
+    <t>Construir un servicio web para crear admin</t>
+  </si>
+  <si>
+    <t>1.2.2</t>
+  </si>
+  <si>
+    <t>Construir un servicio web para leer lista de admins</t>
+  </si>
+  <si>
+    <t>1.2.1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -359,20 +715,123 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -381,7 +840,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -419,12 +878,117 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="16">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -444,16 +1008,13 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -469,20 +1030,38 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0E140770-7765-4347-8890-6B4C94FC0DD6}" name="HU" displayName="HU" ref="A1:H33" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="A1:H33" xr:uid="{0E140770-7765-4347-8890-6B4C94FC0DD6}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H33">
-    <sortCondition ref="A1:A33"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{702451A1-D908-491F-A7BB-497E8CF89D9D}" name="EPICS" displayName="EPICS" ref="A1:B8" totalsRowShown="0">
+  <autoFilter ref="A1:B8" xr:uid="{702451A1-D908-491F-A7BB-497E8CF89D9D}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{87B23D7F-7D2D-4006-BABB-1998D17B1BBF}" name="NOMBRE" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{9B30E83F-F9E8-421B-B1F1-1EBD5D1A8A8F}" name="ID"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0E140770-7765-4347-8890-6B4C94FC0DD6}" name="HU" displayName="HU" ref="A1:I33" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+  <autoFilter ref="A1:I33" xr:uid="{0E140770-7765-4347-8890-6B4C94FC0DD6}">
+    <filterColumn colId="5">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I33">
+    <sortCondition ref="B1:B33"/>
   </sortState>
-  <tableColumns count="8">
+  <tableColumns count="9">
+    <tableColumn id="9" xr3:uid="{28171A87-EC5E-4F00-B431-156702AEACD1}" name="ID" dataDxfId="5"/>
     <tableColumn id="1" xr3:uid="{3D57EC37-28F4-4400-A574-E0E4A54C828A}" name="MÓDULO" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{7DCC34B7-548D-47A7-87E0-7C2F6DAB3DEE}" name="ROL" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{F6FCAAF3-62B9-4B8B-B52A-81D2AC9613FF}" name="FUNCIONALIDAD" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{0AC39ECF-CF32-4750-879E-7F9D09B6DDB4}" name="OBJETIVO" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{C4950150-4523-42DB-B797-688C0BAA5C1F}" name="TAG 1" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{28051DBA-1FB2-4D73-81C0-D9F45456246C}" name="CATEGORÍA" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{7DCC34B7-548D-47A7-87E0-7C2F6DAB3DEE}" name="ROL" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{F6FCAAF3-62B9-4B8B-B52A-81D2AC9613FF}" name="FUNCIONALIDAD" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{0AC39ECF-CF32-4750-879E-7F9D09B6DDB4}" name="OBJETIVO" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{C4950150-4523-42DB-B797-688C0BAA5C1F}" name="TAG 1" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{28051DBA-1FB2-4D73-81C0-D9F45456246C}" name="CATEGORÍA" dataDxfId="8"/>
     <tableColumn id="10" xr3:uid="{AC15AB67-0459-4A71-951D-05D3188B5095}" name="WIREFRAMES"/>
-    <tableColumn id="11" xr3:uid="{268C71AF-9866-41C1-BED0-22AB5BF07941}" name="MOCKUPS" dataDxfId="0"/>
+    <tableColumn id="11" xr3:uid="{268C71AF-9866-41C1-BED0-22AB5BF07941}" name="MOCKUPS" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -784,696 +1363,883 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBA2B2BC-3E42-4558-A732-C5D74C5B836E}">
-  <dimension ref="A1:H41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13E243ED-5F69-4651-9409-F47D6883EC62}">
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="46.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" customWidth="1"/>
-    <col min="7" max="7" width="18.5703125" customWidth="1"/>
-    <col min="8" max="8" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="5.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBA2B2BC-3E42-4558-A732-C5D74C5B836E}">
+  <dimension ref="A1:I41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="40.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="40.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="I1" s="9" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="C3" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="F3" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="G3" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>1.3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>2.1</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="C5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D5" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="E5" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="F5" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="G5" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="C6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="D6" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="E6" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="F6" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="G6" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>3.1</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="C8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="D8" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="E8" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="F8" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="G8" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>3.2</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="C9" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="D9" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="E9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="F9" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="G9" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B9" s="7" t="s">
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="D10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>3.4</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="C11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="D12" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="C13" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="6" t="s">
+      <c r="D13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>3.7</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>3.8</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="F11" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="G16" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>4.2</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="C17" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>4.3</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="6" t="s">
+      <c r="D20" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F20" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="F12" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="7" t="s">
+      <c r="G20" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>5.2</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="7" t="s">
+      <c r="D21" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>5.3</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>5.4</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>5.6</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" s="7" t="s">
+      <c r="D25" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>6.1</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>6.2</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>6.3</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="I28" s="1"/>
+    </row>
+    <row r="29" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>6.4</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" s="6" t="s">
+      <c r="D29" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="I29" s="1"/>
+    </row>
+    <row r="30" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>6.5</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="I30" s="1"/>
+    </row>
+    <row r="31" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>7.1</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="F17" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E18" s="6" t="s">
+      <c r="G31" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>7.2</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F32" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="F18" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E19" s="6" t="s">
+      <c r="G32" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="I32" s="1"/>
+    </row>
+    <row r="33" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>7.3</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F33" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="F19" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="H20" s="1"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="H22" s="1"/>
-    </row>
-    <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="F23" s="6" t="s">
+      <c r="G33" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="H23" s="1"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="H24" s="1"/>
-    </row>
-    <row r="25" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="H25" s="1"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="H26" s="1"/>
-    </row>
-    <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="H27" s="1"/>
-    </row>
-    <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="H28" s="1"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="H29" s="1"/>
-    </row>
-    <row r="30" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="H30" s="1"/>
-    </row>
-    <row r="31" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="H31" s="1"/>
-    </row>
-    <row r="32" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="H32" s="1"/>
-    </row>
-    <row r="33" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="H33" s="1"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I33" s="1"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
       <c r="D35" s="12"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D36" s="10"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D37" s="10"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D38" s="10"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D39" s="10"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D40" s="10"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D41" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F33" xr:uid="{A288699B-4736-48D1-BC7B-CA44439A0DDB}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G33" xr:uid="{A288699B-4736-48D1-BC7B-CA44439A0DDB}">
       <formula1>"productos, usuario, venta, carrito, devolución"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E33" xr:uid="{E4229B9E-EEEE-49AB-9FBD-CABA4AE860BA}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F33" xr:uid="{E4229B9E-EEEE-49AB-9FBD-CABA4AE860BA}">
       <formula1>"CRUD, frontend, backend, data_manage, other"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1483,4 +2249,670 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AB71BC0-4FED-421A-86C5-328962F1C9A8}">
+  <dimension ref="A1:C58"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.85546875" customWidth="1"/>
+    <col min="2" max="2" width="71.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="33"/>
+      <c r="B2" s="32">
+        <v>1.2</v>
+      </c>
+      <c r="C2" s="31"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>205</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>195</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>191</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="B19" t="s">
+        <v>173</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="B20" t="s">
+        <v>171</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="30"/>
+      <c r="B21" s="13">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="B22" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="B23" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="C23" s="27" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="B24" s="29" t="s">
+        <v>165</v>
+      </c>
+      <c r="C24" s="27" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="B25" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="C25" s="27" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="B26" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="C27" s="24" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="B28" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="B29" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="C29" s="24" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="B30" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="B31" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="C31" s="21" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="B32" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="B33" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="C33" s="21" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="B35" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="B36" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="B37" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="B38" t="s">
+        <v>137</v>
+      </c>
+      <c r="C38" s="16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="B39" t="s">
+        <v>135</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B40" s="13">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="B41" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="C41" s="27" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B42" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="C42" s="27" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="B43" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="C43" s="27" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="B44" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="C44" s="27" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="B45" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="C45" s="24" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="B46" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="C46" s="24" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="B47" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="C47" s="24" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="B48" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="C48" s="24" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="B49" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="C49" s="21" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="B50" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="C50" s="21" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="B51" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="C51" s="21" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="B52" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="C52" s="21" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="B53" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="C53" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="B54" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="C54" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="B55" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="C55" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="B56" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="C56" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="B57" t="s">
+        <v>97</v>
+      </c>
+      <c r="C57" s="16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="B58" t="s">
+        <v>95</v>
+      </c>
+      <c r="C58" s="16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A3:C1048576">
+    <cfRule type="expression" dxfId="4" priority="1">
+      <formula>$C3="lead"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2">
+      <formula>$C3="QA"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>$C3="mockup"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="4">
+      <formula>$C3="frontend"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="5">
+      <formula>$C3="backend"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576" xr:uid="{60DFD467-7D14-4C37-B23D-38C8A26B77A5}">
+      <formula1>"backend, frontend,mockup, QA, lead, team"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="8" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/files/project requirements/HU/HU.xlsx
+++ b/files/project requirements/HU/HU.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Users\Administrador\Documents\Documentos personales\MinTIC2022\Ciclo 3\Programación\Proyecto\ssacg\files\project requirements\HU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB0172A6-C7EF-48BF-9190-896DF3C1EC1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F827339E-5BC3-4E30-B231-58B25605B6AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11760" activeTab="1" xr2:uid="{DB665A41-5881-4F67-A75C-EB14CE28CF87}"/>
+    <workbookView xWindow="20280" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{DB665A41-5881-4F67-A75C-EB14CE28CF87}"/>
   </bookViews>
   <sheets>
     <sheet name="EPICS" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="222">
   <si>
     <t>ROL</t>
   </si>
@@ -680,6 +680,51 @@
   </si>
   <si>
     <t>1.2.1</t>
+  </si>
+  <si>
+    <t>asginado</t>
+  </si>
+  <si>
+    <t>Construir el modelo de la entidad Cliente</t>
+  </si>
+  <si>
+    <t>Construir el serializador de la entidad Cliente</t>
+  </si>
+  <si>
+    <t>Construir el modelo de la entidad Orden</t>
+  </si>
+  <si>
+    <t>Construir el serializador de la entidad Orden</t>
+  </si>
+  <si>
+    <t>Construir el serializador de la entidad Productos</t>
+  </si>
+  <si>
+    <t>Construir el modelo de la entidad Productos</t>
+  </si>
+  <si>
+    <t>James</t>
+  </si>
+  <si>
+    <t>Construir el serializador de la entidad detalle de orden</t>
+  </si>
+  <si>
+    <t>Construir el modelo de la entidad detalle de orden</t>
+  </si>
+  <si>
+    <t>Construir el modelo de la entidad Administradores</t>
+  </si>
+  <si>
+    <t>Construir el serializador de la entidad Administradores</t>
+  </si>
+  <si>
+    <t>steven</t>
+  </si>
+  <si>
+    <t>Alejandro</t>
+  </si>
+  <si>
+    <t>otros (sprint 3)</t>
   </si>
 </sst>
 </file>
@@ -731,7 +776,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -786,8 +831,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -835,12 +886,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -936,6 +996,16 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -978,18 +1048,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1006,6 +1064,18 @@
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1042,26 +1112,20 @@
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0E140770-7765-4347-8890-6B4C94FC0DD6}" name="HU" displayName="HU" ref="A1:I33" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
-  <autoFilter ref="A1:I33" xr:uid="{0E140770-7765-4347-8890-6B4C94FC0DD6}">
-    <filterColumn colId="5">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:I33" xr:uid="{0E140770-7765-4347-8890-6B4C94FC0DD6}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I33">
     <sortCondition ref="B1:B33"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="9" xr3:uid="{28171A87-EC5E-4F00-B431-156702AEACD1}" name="ID" dataDxfId="5"/>
-    <tableColumn id="1" xr3:uid="{3D57EC37-28F4-4400-A574-E0E4A54C828A}" name="MÓDULO" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{7DCC34B7-548D-47A7-87E0-7C2F6DAB3DEE}" name="ROL" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{F6FCAAF3-62B9-4B8B-B52A-81D2AC9613FF}" name="FUNCIONALIDAD" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{0AC39ECF-CF32-4750-879E-7F9D09B6DDB4}" name="OBJETIVO" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{C4950150-4523-42DB-B797-688C0BAA5C1F}" name="TAG 1" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{28051DBA-1FB2-4D73-81C0-D9F45456246C}" name="CATEGORÍA" dataDxfId="8"/>
+    <tableColumn id="9" xr3:uid="{28171A87-EC5E-4F00-B431-156702AEACD1}" name="ID" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{3D57EC37-28F4-4400-A574-E0E4A54C828A}" name="MÓDULO" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{7DCC34B7-548D-47A7-87E0-7C2F6DAB3DEE}" name="ROL" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{F6FCAAF3-62B9-4B8B-B52A-81D2AC9613FF}" name="FUNCIONALIDAD" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{0AC39ECF-CF32-4750-879E-7F9D09B6DDB4}" name="OBJETIVO" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{C4950150-4523-42DB-B797-688C0BAA5C1F}" name="TAG 1" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{28051DBA-1FB2-4D73-81C0-D9F45456246C}" name="CATEGORÍA" dataDxfId="6"/>
     <tableColumn id="10" xr3:uid="{AC15AB67-0459-4A71-951D-05D3188B5095}" name="WIREFRAMES"/>
-    <tableColumn id="11" xr3:uid="{268C71AF-9866-41C1-BED0-22AB5BF07941}" name="MOCKUPS" dataDxfId="7"/>
+    <tableColumn id="11" xr3:uid="{268C71AF-9866-41C1-BED0-22AB5BF07941}" name="MOCKUPS" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1367,7 +1431,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1452,8 +1516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBA2B2BC-3E42-4558-A732-C5D74C5B836E}">
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="40.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1546,7 +1610,7 @@
       </c>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>1.3</v>
       </c>
@@ -1614,7 +1678,7 @@
       </c>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>2.2999999999999998</v>
       </c>
@@ -1682,7 +1746,7 @@
       </c>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>3.3</v>
       </c>
@@ -1702,7 +1766,7 @@
       <c r="G10" s="6"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>3.4</v>
       </c>
@@ -1726,7 +1790,7 @@
       </c>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>3.5</v>
       </c>
@@ -1746,7 +1810,7 @@
       <c r="G12" s="6"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>3.6</v>
       </c>
@@ -1766,7 +1830,7 @@
       <c r="G13" s="6"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>3.7</v>
       </c>
@@ -1786,7 +1850,7 @@
       <c r="G14" s="6"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>3.8</v>
       </c>
@@ -1878,7 +1942,7 @@
       </c>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>4.4000000000000004</v>
       </c>
@@ -1950,7 +2014,7 @@
       </c>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>5.3</v>
       </c>
@@ -2018,7 +2082,7 @@
       </c>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>5.6</v>
       </c>
@@ -2038,7 +2102,7 @@
       <c r="G25" s="6"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>6.1</v>
       </c>
@@ -2058,7 +2122,7 @@
       <c r="G26" s="6"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>6.2</v>
       </c>
@@ -2078,7 +2142,7 @@
       <c r="G27" s="6"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>6.3</v>
       </c>
@@ -2098,7 +2162,7 @@
       <c r="G28" s="6"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>6.4</v>
       </c>
@@ -2118,7 +2182,7 @@
       <c r="G29" s="6"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>6.5</v>
       </c>
@@ -2253,10 +2317,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AB71BC0-4FED-421A-86C5-328962F1C9A8}">
-  <dimension ref="A1:C58"/>
+  <dimension ref="A1:D70"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2266,7 +2330,7 @@
     <col min="3" max="3" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>91</v>
       </c>
@@ -2276,15 +2340,18 @@
       <c r="C1" s="34" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="37" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="33"/>
       <c r="B2" s="32">
         <v>1.2</v>
       </c>
       <c r="C2" s="31"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>206</v>
       </c>
@@ -2295,7 +2362,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>204</v>
       </c>
@@ -2306,7 +2373,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>202</v>
       </c>
@@ -2317,7 +2384,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>200</v>
       </c>
@@ -2328,7 +2395,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>198</v>
       </c>
@@ -2339,7 +2406,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>196</v>
       </c>
@@ -2350,7 +2417,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>194</v>
       </c>
@@ -2361,7 +2428,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>192</v>
       </c>
@@ -2372,7 +2439,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
         <v>190</v>
       </c>
@@ -2383,7 +2450,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
         <v>188</v>
       </c>
@@ -2394,7 +2461,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
         <v>186</v>
       </c>
@@ -2405,7 +2472,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>184</v>
       </c>
@@ -2416,7 +2483,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
         <v>182</v>
       </c>
@@ -2427,7 +2494,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
         <v>180</v>
       </c>
@@ -2887,6 +2954,111 @@
       </c>
       <c r="C58" s="16" t="s">
         <v>94</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B60" s="38" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="39" t="s">
+        <v>219</v>
+      </c>
+      <c r="B61" s="40" t="s">
+        <v>208</v>
+      </c>
+      <c r="C61" s="41" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="40" t="s">
+        <v>219</v>
+      </c>
+      <c r="B62" s="42" t="s">
+        <v>209</v>
+      </c>
+      <c r="C62" s="41" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>210</v>
+      </c>
+      <c r="C63" s="41" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>211</v>
+      </c>
+      <c r="C64" s="41" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="39" t="s">
+        <v>214</v>
+      </c>
+      <c r="B65" s="40" t="s">
+        <v>213</v>
+      </c>
+      <c r="C65" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="39" t="s">
+        <v>214</v>
+      </c>
+      <c r="B66" s="42" t="s">
+        <v>212</v>
+      </c>
+      <c r="C66" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="39" t="s">
+        <v>220</v>
+      </c>
+      <c r="B67" t="s">
+        <v>216</v>
+      </c>
+      <c r="C67" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="39" t="s">
+        <v>220</v>
+      </c>
+      <c r="B68" t="s">
+        <v>215</v>
+      </c>
+      <c r="C68" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="39"/>
+      <c r="B69" s="40" t="s">
+        <v>217</v>
+      </c>
+      <c r="C69" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="39"/>
+      <c r="B70" s="42" t="s">
+        <v>218</v>
+      </c>
+      <c r="C70" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/files/project requirements/HU/HU.xlsx
+++ b/files/project requirements/HU/HU.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Users\Administrador\Documents\Documentos personales\MinTIC2022\Ciclo 3\Programación\Proyecto\ssacg\files\project requirements\HU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F827339E-5BC3-4E30-B231-58B25605B6AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB60D0E2-4AE7-4607-904F-11172543AF21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20280" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{DB665A41-5881-4F67-A75C-EB14CE28CF87}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="259">
   <si>
     <t>ROL</t>
   </si>
@@ -725,6 +725,117 @@
   </si>
   <si>
     <t>otros (sprint 3)</t>
+  </si>
+  <si>
+    <t>6.1.1</t>
+  </si>
+  <si>
+    <t>Construir un servicio web para autenticar admins</t>
+  </si>
+  <si>
+    <t>6.1.2</t>
+  </si>
+  <si>
+    <t>6.1.3</t>
+  </si>
+  <si>
+    <t>6.1.4</t>
+  </si>
+  <si>
+    <t>6.1.5</t>
+  </si>
+  <si>
+    <t>Diseñar un mockup para autenticar admins (login)</t>
+  </si>
+  <si>
+    <t>Construir UI de mockup para autenticar admins (login)</t>
+  </si>
+  <si>
+    <t>Diseñar casos de prueba para el servicio web de autenticación de admin</t>
+  </si>
+  <si>
+    <t>Realizar casos de prueba para el servicio web de autenticación de admin</t>
+  </si>
+  <si>
+    <t>Diseñar casos de prueba para la UI de autenticación de admins</t>
+  </si>
+  <si>
+    <t>Realizar casos de prueba para la UI de autenticación de admins</t>
+  </si>
+  <si>
+    <t>6.1.6</t>
+  </si>
+  <si>
+    <t>6.1.7</t>
+  </si>
+  <si>
+    <t>6.1.8</t>
+  </si>
+  <si>
+    <t>6.1.9</t>
+  </si>
+  <si>
+    <t>Desplegar servicio web autenticación de admins</t>
+  </si>
+  <si>
+    <t>Desplegar UI autenticación de admins</t>
+  </si>
+  <si>
+    <t>6.6 (registro de admin) parte de 1.2</t>
+  </si>
+  <si>
+    <t>6.6.1</t>
+  </si>
+  <si>
+    <t>6.6.2</t>
+  </si>
+  <si>
+    <t>6.6.3</t>
+  </si>
+  <si>
+    <t>6.6.4</t>
+  </si>
+  <si>
+    <t>6.6.5</t>
+  </si>
+  <si>
+    <t>6.6.6</t>
+  </si>
+  <si>
+    <t>6.6.7</t>
+  </si>
+  <si>
+    <t>6.6.8</t>
+  </si>
+  <si>
+    <t>6.6.9</t>
+  </si>
+  <si>
+    <t>Construir un servicio web para registrar admins</t>
+  </si>
+  <si>
+    <t>Diseñar un mockup para registrar admins</t>
+  </si>
+  <si>
+    <t>Construir UI de mockup para registrar admins</t>
+  </si>
+  <si>
+    <t>Diseñar casos de prueba para el servicio web de registro de admin</t>
+  </si>
+  <si>
+    <t>Realizar casos de prueba para el servicio web de registro de admin</t>
+  </si>
+  <si>
+    <t>Diseñar casos de prueba para la UI de registro de admins</t>
+  </si>
+  <si>
+    <t>Realizar casos de prueba para la UI de registro de admins</t>
+  </si>
+  <si>
+    <t>Desplegar servicio web registro de admins</t>
+  </si>
+  <si>
+    <t>Desplegar UI registro de admins</t>
   </si>
 </sst>
 </file>
@@ -900,7 +1011,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1006,6 +1117,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1516,8 +1639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBA2B2BC-3E42-4558-A732-C5D74C5B836E}">
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="40.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2182,7 +2305,7 @@
       <c r="G29" s="6"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>6.5</v>
       </c>
@@ -2317,10 +2440,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AB71BC0-4FED-421A-86C5-328962F1C9A8}">
-  <dimension ref="A1:D70"/>
+  <dimension ref="A1:D92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B84" sqref="B84:B92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3006,7 +3129,7 @@
       <c r="B65" s="40" t="s">
         <v>213</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="43" t="s">
         <v>126</v>
       </c>
     </row>
@@ -3017,7 +3140,7 @@
       <c r="B66" s="42" t="s">
         <v>212</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="43" t="s">
         <v>126</v>
       </c>
     </row>
@@ -3028,7 +3151,7 @@
       <c r="B67" t="s">
         <v>216</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" s="43" t="s">
         <v>126</v>
       </c>
     </row>
@@ -3039,7 +3162,7 @@
       <c r="B68" t="s">
         <v>215</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="43" t="s">
         <v>126</v>
       </c>
     </row>
@@ -3048,7 +3171,7 @@
       <c r="B69" s="40" t="s">
         <v>217</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" s="43" t="s">
         <v>126</v>
       </c>
     </row>
@@ -3057,11 +3180,220 @@
       <c r="B70" s="42" t="s">
         <v>218</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" s="43" t="s">
         <v>126</v>
       </c>
     </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B72" s="13">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="B73" s="29" t="s">
+        <v>223</v>
+      </c>
+      <c r="C73" s="27" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="B74" t="s">
+        <v>228</v>
+      </c>
+      <c r="C74" s="27" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="B75" t="s">
+        <v>229</v>
+      </c>
+      <c r="C75" s="27" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="18" t="s">
+        <v>226</v>
+      </c>
+      <c r="B76" t="s">
+        <v>230</v>
+      </c>
+      <c r="C76" s="27" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="B77" t="s">
+        <v>231</v>
+      </c>
+      <c r="C77" s="27" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="18" t="s">
+        <v>234</v>
+      </c>
+      <c r="B78" t="s">
+        <v>232</v>
+      </c>
+      <c r="C78" s="27" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="B79" t="s">
+        <v>233</v>
+      </c>
+      <c r="C79" s="27" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="B80" t="s">
+        <v>238</v>
+      </c>
+      <c r="C80" s="44" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="B81" s="45" t="s">
+        <v>239</v>
+      </c>
+      <c r="C81" s="44" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B83" s="13" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="46" t="s">
+        <v>241</v>
+      </c>
+      <c r="B84" s="29" t="s">
+        <v>250</v>
+      </c>
+      <c r="C84" s="27" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="46" t="s">
+        <v>242</v>
+      </c>
+      <c r="B85" t="s">
+        <v>251</v>
+      </c>
+      <c r="C85" s="27" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="46" t="s">
+        <v>243</v>
+      </c>
+      <c r="B86" t="s">
+        <v>252</v>
+      </c>
+      <c r="C86" s="27" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="46" t="s">
+        <v>244</v>
+      </c>
+      <c r="B87" t="s">
+        <v>253</v>
+      </c>
+      <c r="C87" s="27" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="46" t="s">
+        <v>245</v>
+      </c>
+      <c r="B88" t="s">
+        <v>254</v>
+      </c>
+      <c r="C88" s="27" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="46" t="s">
+        <v>246</v>
+      </c>
+      <c r="B89" t="s">
+        <v>255</v>
+      </c>
+      <c r="C89" s="27" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="46" t="s">
+        <v>247</v>
+      </c>
+      <c r="B90" t="s">
+        <v>256</v>
+      </c>
+      <c r="C90" s="27" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="46" t="s">
+        <v>248</v>
+      </c>
+      <c r="B91" t="s">
+        <v>257</v>
+      </c>
+      <c r="C91" s="44" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="46" t="s">
+        <v>249</v>
+      </c>
+      <c r="B92" s="45" t="s">
+        <v>258</v>
+      </c>
+      <c r="C92" s="44" t="s">
+        <v>94</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A3:C1048576">
     <cfRule type="expression" dxfId="4" priority="1">
       <formula>$C3="lead"</formula>

--- a/files/project requirements/HU/HU.xlsx
+++ b/files/project requirements/HU/HU.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Users\Administrador\Documents\Documentos personales\MinTIC2022\Ciclo 3\Programación\Proyecto\ssacg\files\project requirements\HU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB0172A6-C7EF-48BF-9190-896DF3C1EC1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB60D0E2-4AE7-4607-904F-11172543AF21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11760" activeTab="1" xr2:uid="{DB665A41-5881-4F67-A75C-EB14CE28CF87}"/>
+    <workbookView xWindow="20280" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{DB665A41-5881-4F67-A75C-EB14CE28CF87}"/>
   </bookViews>
   <sheets>
     <sheet name="EPICS" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="259">
   <si>
     <t>ROL</t>
   </si>
@@ -680,6 +680,162 @@
   </si>
   <si>
     <t>1.2.1</t>
+  </si>
+  <si>
+    <t>asginado</t>
+  </si>
+  <si>
+    <t>Construir el modelo de la entidad Cliente</t>
+  </si>
+  <si>
+    <t>Construir el serializador de la entidad Cliente</t>
+  </si>
+  <si>
+    <t>Construir el modelo de la entidad Orden</t>
+  </si>
+  <si>
+    <t>Construir el serializador de la entidad Orden</t>
+  </si>
+  <si>
+    <t>Construir el serializador de la entidad Productos</t>
+  </si>
+  <si>
+    <t>Construir el modelo de la entidad Productos</t>
+  </si>
+  <si>
+    <t>James</t>
+  </si>
+  <si>
+    <t>Construir el serializador de la entidad detalle de orden</t>
+  </si>
+  <si>
+    <t>Construir el modelo de la entidad detalle de orden</t>
+  </si>
+  <si>
+    <t>Construir el modelo de la entidad Administradores</t>
+  </si>
+  <si>
+    <t>Construir el serializador de la entidad Administradores</t>
+  </si>
+  <si>
+    <t>steven</t>
+  </si>
+  <si>
+    <t>Alejandro</t>
+  </si>
+  <si>
+    <t>otros (sprint 3)</t>
+  </si>
+  <si>
+    <t>6.1.1</t>
+  </si>
+  <si>
+    <t>Construir un servicio web para autenticar admins</t>
+  </si>
+  <si>
+    <t>6.1.2</t>
+  </si>
+  <si>
+    <t>6.1.3</t>
+  </si>
+  <si>
+    <t>6.1.4</t>
+  </si>
+  <si>
+    <t>6.1.5</t>
+  </si>
+  <si>
+    <t>Diseñar un mockup para autenticar admins (login)</t>
+  </si>
+  <si>
+    <t>Construir UI de mockup para autenticar admins (login)</t>
+  </si>
+  <si>
+    <t>Diseñar casos de prueba para el servicio web de autenticación de admin</t>
+  </si>
+  <si>
+    <t>Realizar casos de prueba para el servicio web de autenticación de admin</t>
+  </si>
+  <si>
+    <t>Diseñar casos de prueba para la UI de autenticación de admins</t>
+  </si>
+  <si>
+    <t>Realizar casos de prueba para la UI de autenticación de admins</t>
+  </si>
+  <si>
+    <t>6.1.6</t>
+  </si>
+  <si>
+    <t>6.1.7</t>
+  </si>
+  <si>
+    <t>6.1.8</t>
+  </si>
+  <si>
+    <t>6.1.9</t>
+  </si>
+  <si>
+    <t>Desplegar servicio web autenticación de admins</t>
+  </si>
+  <si>
+    <t>Desplegar UI autenticación de admins</t>
+  </si>
+  <si>
+    <t>6.6 (registro de admin) parte de 1.2</t>
+  </si>
+  <si>
+    <t>6.6.1</t>
+  </si>
+  <si>
+    <t>6.6.2</t>
+  </si>
+  <si>
+    <t>6.6.3</t>
+  </si>
+  <si>
+    <t>6.6.4</t>
+  </si>
+  <si>
+    <t>6.6.5</t>
+  </si>
+  <si>
+    <t>6.6.6</t>
+  </si>
+  <si>
+    <t>6.6.7</t>
+  </si>
+  <si>
+    <t>6.6.8</t>
+  </si>
+  <si>
+    <t>6.6.9</t>
+  </si>
+  <si>
+    <t>Construir un servicio web para registrar admins</t>
+  </si>
+  <si>
+    <t>Diseñar un mockup para registrar admins</t>
+  </si>
+  <si>
+    <t>Construir UI de mockup para registrar admins</t>
+  </si>
+  <si>
+    <t>Diseñar casos de prueba para el servicio web de registro de admin</t>
+  </si>
+  <si>
+    <t>Realizar casos de prueba para el servicio web de registro de admin</t>
+  </si>
+  <si>
+    <t>Diseñar casos de prueba para la UI de registro de admins</t>
+  </si>
+  <si>
+    <t>Realizar casos de prueba para la UI de registro de admins</t>
+  </si>
+  <si>
+    <t>Desplegar servicio web registro de admins</t>
+  </si>
+  <si>
+    <t>Desplegar UI registro de admins</t>
   </si>
 </sst>
 </file>
@@ -731,7 +887,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -786,8 +942,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -835,12 +997,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -936,6 +1107,28 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -978,18 +1171,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1006,6 +1187,18 @@
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1042,26 +1235,20 @@
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0E140770-7765-4347-8890-6B4C94FC0DD6}" name="HU" displayName="HU" ref="A1:I33" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
-  <autoFilter ref="A1:I33" xr:uid="{0E140770-7765-4347-8890-6B4C94FC0DD6}">
-    <filterColumn colId="5">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:I33" xr:uid="{0E140770-7765-4347-8890-6B4C94FC0DD6}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I33">
     <sortCondition ref="B1:B33"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="9" xr3:uid="{28171A87-EC5E-4F00-B431-156702AEACD1}" name="ID" dataDxfId="5"/>
-    <tableColumn id="1" xr3:uid="{3D57EC37-28F4-4400-A574-E0E4A54C828A}" name="MÓDULO" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{7DCC34B7-548D-47A7-87E0-7C2F6DAB3DEE}" name="ROL" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{F6FCAAF3-62B9-4B8B-B52A-81D2AC9613FF}" name="FUNCIONALIDAD" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{0AC39ECF-CF32-4750-879E-7F9D09B6DDB4}" name="OBJETIVO" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{C4950150-4523-42DB-B797-688C0BAA5C1F}" name="TAG 1" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{28051DBA-1FB2-4D73-81C0-D9F45456246C}" name="CATEGORÍA" dataDxfId="8"/>
+    <tableColumn id="9" xr3:uid="{28171A87-EC5E-4F00-B431-156702AEACD1}" name="ID" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{3D57EC37-28F4-4400-A574-E0E4A54C828A}" name="MÓDULO" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{7DCC34B7-548D-47A7-87E0-7C2F6DAB3DEE}" name="ROL" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{F6FCAAF3-62B9-4B8B-B52A-81D2AC9613FF}" name="FUNCIONALIDAD" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{0AC39ECF-CF32-4750-879E-7F9D09B6DDB4}" name="OBJETIVO" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{C4950150-4523-42DB-B797-688C0BAA5C1F}" name="TAG 1" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{28051DBA-1FB2-4D73-81C0-D9F45456246C}" name="CATEGORÍA" dataDxfId="6"/>
     <tableColumn id="10" xr3:uid="{AC15AB67-0459-4A71-951D-05D3188B5095}" name="WIREFRAMES"/>
-    <tableColumn id="11" xr3:uid="{268C71AF-9866-41C1-BED0-22AB5BF07941}" name="MOCKUPS" dataDxfId="7"/>
+    <tableColumn id="11" xr3:uid="{268C71AF-9866-41C1-BED0-22AB5BF07941}" name="MOCKUPS" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1367,7 +1554,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1452,8 +1639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBA2B2BC-3E42-4558-A732-C5D74C5B836E}">
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="40.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1546,7 +1733,7 @@
       </c>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>1.3</v>
       </c>
@@ -1614,7 +1801,7 @@
       </c>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>2.2999999999999998</v>
       </c>
@@ -1682,7 +1869,7 @@
       </c>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>3.3</v>
       </c>
@@ -1702,7 +1889,7 @@
       <c r="G10" s="6"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>3.4</v>
       </c>
@@ -1726,7 +1913,7 @@
       </c>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>3.5</v>
       </c>
@@ -1746,7 +1933,7 @@
       <c r="G12" s="6"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>3.6</v>
       </c>
@@ -1766,7 +1953,7 @@
       <c r="G13" s="6"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>3.7</v>
       </c>
@@ -1786,7 +1973,7 @@
       <c r="G14" s="6"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>3.8</v>
       </c>
@@ -1878,7 +2065,7 @@
       </c>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>4.4000000000000004</v>
       </c>
@@ -1950,7 +2137,7 @@
       </c>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>5.3</v>
       </c>
@@ -2018,7 +2205,7 @@
       </c>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>5.6</v>
       </c>
@@ -2038,7 +2225,7 @@
       <c r="G25" s="6"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>6.1</v>
       </c>
@@ -2058,7 +2245,7 @@
       <c r="G26" s="6"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>6.2</v>
       </c>
@@ -2078,7 +2265,7 @@
       <c r="G27" s="6"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>6.3</v>
       </c>
@@ -2098,7 +2285,7 @@
       <c r="G28" s="6"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>6.4</v>
       </c>
@@ -2118,7 +2305,7 @@
       <c r="G29" s="6"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>6.5</v>
       </c>
@@ -2253,10 +2440,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AB71BC0-4FED-421A-86C5-328962F1C9A8}">
-  <dimension ref="A1:C58"/>
+  <dimension ref="A1:D92"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B84" sqref="B84:B92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2266,7 +2453,7 @@
     <col min="3" max="3" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>91</v>
       </c>
@@ -2276,15 +2463,18 @@
       <c r="C1" s="34" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="37" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="33"/>
       <c r="B2" s="32">
         <v>1.2</v>
       </c>
       <c r="C2" s="31"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>206</v>
       </c>
@@ -2295,7 +2485,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>204</v>
       </c>
@@ -2306,7 +2496,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>202</v>
       </c>
@@ -2317,7 +2507,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>200</v>
       </c>
@@ -2328,7 +2518,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>198</v>
       </c>
@@ -2339,7 +2529,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>196</v>
       </c>
@@ -2350,7 +2540,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>194</v>
       </c>
@@ -2361,7 +2551,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>192</v>
       </c>
@@ -2372,7 +2562,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
         <v>190</v>
       </c>
@@ -2383,7 +2573,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
         <v>188</v>
       </c>
@@ -2394,7 +2584,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
         <v>186</v>
       </c>
@@ -2405,7 +2595,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>184</v>
       </c>
@@ -2416,7 +2606,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
         <v>182</v>
       </c>
@@ -2427,7 +2617,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
         <v>180</v>
       </c>
@@ -2889,7 +3079,321 @@
         <v>94</v>
       </c>
     </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B60" s="38" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="39" t="s">
+        <v>219</v>
+      </c>
+      <c r="B61" s="40" t="s">
+        <v>208</v>
+      </c>
+      <c r="C61" s="41" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="40" t="s">
+        <v>219</v>
+      </c>
+      <c r="B62" s="42" t="s">
+        <v>209</v>
+      </c>
+      <c r="C62" s="41" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>210</v>
+      </c>
+      <c r="C63" s="41" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>211</v>
+      </c>
+      <c r="C64" s="41" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="39" t="s">
+        <v>214</v>
+      </c>
+      <c r="B65" s="40" t="s">
+        <v>213</v>
+      </c>
+      <c r="C65" s="43" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="39" t="s">
+        <v>214</v>
+      </c>
+      <c r="B66" s="42" t="s">
+        <v>212</v>
+      </c>
+      <c r="C66" s="43" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="39" t="s">
+        <v>220</v>
+      </c>
+      <c r="B67" t="s">
+        <v>216</v>
+      </c>
+      <c r="C67" s="43" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="39" t="s">
+        <v>220</v>
+      </c>
+      <c r="B68" t="s">
+        <v>215</v>
+      </c>
+      <c r="C68" s="43" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="39"/>
+      <c r="B69" s="40" t="s">
+        <v>217</v>
+      </c>
+      <c r="C69" s="43" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="39"/>
+      <c r="B70" s="42" t="s">
+        <v>218</v>
+      </c>
+      <c r="C70" s="43" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B72" s="13">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="B73" s="29" t="s">
+        <v>223</v>
+      </c>
+      <c r="C73" s="27" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="B74" t="s">
+        <v>228</v>
+      </c>
+      <c r="C74" s="27" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="B75" t="s">
+        <v>229</v>
+      </c>
+      <c r="C75" s="27" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="18" t="s">
+        <v>226</v>
+      </c>
+      <c r="B76" t="s">
+        <v>230</v>
+      </c>
+      <c r="C76" s="27" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="B77" t="s">
+        <v>231</v>
+      </c>
+      <c r="C77" s="27" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="18" t="s">
+        <v>234</v>
+      </c>
+      <c r="B78" t="s">
+        <v>232</v>
+      </c>
+      <c r="C78" s="27" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="B79" t="s">
+        <v>233</v>
+      </c>
+      <c r="C79" s="27" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="B80" t="s">
+        <v>238</v>
+      </c>
+      <c r="C80" s="44" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="B81" s="45" t="s">
+        <v>239</v>
+      </c>
+      <c r="C81" s="44" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B83" s="13" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="46" t="s">
+        <v>241</v>
+      </c>
+      <c r="B84" s="29" t="s">
+        <v>250</v>
+      </c>
+      <c r="C84" s="27" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="46" t="s">
+        <v>242</v>
+      </c>
+      <c r="B85" t="s">
+        <v>251</v>
+      </c>
+      <c r="C85" s="27" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="46" t="s">
+        <v>243</v>
+      </c>
+      <c r="B86" t="s">
+        <v>252</v>
+      </c>
+      <c r="C86" s="27" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="46" t="s">
+        <v>244</v>
+      </c>
+      <c r="B87" t="s">
+        <v>253</v>
+      </c>
+      <c r="C87" s="27" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="46" t="s">
+        <v>245</v>
+      </c>
+      <c r="B88" t="s">
+        <v>254</v>
+      </c>
+      <c r="C88" s="27" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="46" t="s">
+        <v>246</v>
+      </c>
+      <c r="B89" t="s">
+        <v>255</v>
+      </c>
+      <c r="C89" s="27" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="46" t="s">
+        <v>247</v>
+      </c>
+      <c r="B90" t="s">
+        <v>256</v>
+      </c>
+      <c r="C90" s="27" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="46" t="s">
+        <v>248</v>
+      </c>
+      <c r="B91" t="s">
+        <v>257</v>
+      </c>
+      <c r="C91" s="44" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="46" t="s">
+        <v>249</v>
+      </c>
+      <c r="B92" s="45" t="s">
+        <v>258</v>
+      </c>
+      <c r="C92" s="44" t="s">
+        <v>94</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A3:C1048576">
     <cfRule type="expression" dxfId="4" priority="1">
       <formula>$C3="lead"</formula>
